--- a/pred_ohlcv/54_21/2020-01-22 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>3450.03831339</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3075.616813390001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2538.22351339</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2034.59221339</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2462.90311339</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1832.44643082</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1638.49013082</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2112.94338428</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2007.38498428</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2280.79358428</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2574.90318428</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2574.815884279999</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2564.242484279999</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2426.510484279999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2509.119684279999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2509.079684279999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2117.149684279999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1371.364313910001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1332.703313910001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1410.416613910001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1080.916613910001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1249.167213910001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1545.674094240001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-494.4529493499992</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-369.3706493499992</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-218.1214563099992</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-434.7044563099992</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-390.1044563099992</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1873.162950650001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3114.090194260001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3309.750115180001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3307.55601518</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3791.504986290001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>4095.968186290001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>4499.414390890001</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>4747.319690890002</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3978.948990890002</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3530.986814940002</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2961.010014940002</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3838.559114940002</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2088.453614940001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1235.340514940001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>90.29944658000136</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>291.9983465800013</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>3670.361446580002</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-14540.81931257</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-14887.35117546</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-15098.04027546</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-14994.17727546</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-15119.33357546</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-14930.60937546</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-14849.26087546</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-16356.57407546</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-16469.11897546</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>3450.03831339</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3075.616813390001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2538.22351339</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2034.59221339</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2462.90311339</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1832.44643082</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1638.49013082</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1371.364313910001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1332.703313910001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1410.416613910001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1080.916613910001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1249.167213910001</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1545.674094240001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-494.4529493499992</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-369.3706493499992</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-218.1214563099992</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-434.7044563099992</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-390.1044563099992</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1873.162950650001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3114.090194260001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3309.750115180001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3307.55601518</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2873.632401510001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2239.91448145</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>2749.994086290001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2809.400186290001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3162.840886290001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3791.504986290001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>4095.968186290001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>4499.414390890001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>4747.319690890002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3978.948990890002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3530.986814940002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2961.010014940002</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3838.559114940002</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2088.453614940001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1791.072124990001</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2739.583624990001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2694.667924990001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2548.106624990001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2549.526024990002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2680.527624990002</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3100.474424990001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3330.711924990002</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3391.426824990001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3647.073224990002</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3869.463724990002</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4004.772924990002</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3621.949724990002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2960.678124990002</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>90.29944658000136</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>291.9983465800013</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4395.369946580002</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>3670.361446580002</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-14887.35117546</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-15098.04027546</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-14994.17727546</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-15119.33357546</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-14930.60937546</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-14849.26087546</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-14849.26087546</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-14769.98197546</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-16356.57407546</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-16469.11897546</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
